--- a/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>-56,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>17,15%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,62</t>
+          <t>-4,18; 2,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,97</t>
+          <t>-4,84; 3,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,08</t>
+          <t>-4,81; 0,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,0</t>
+          <t>-3,44; 4,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 84,79</t>
+          <t>-100,0; 358,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 58,36</t>
+          <t>-65,95; 133,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 192,73</t>
+          <t>-100,0; 119,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 125,56</t>
+          <t>-79,13; 378,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-56,74%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,31</t>
+          <t>-1,6; 9,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,68</t>
+          <t>-4,89; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,84</t>
+          <t>0,86; 10,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,57</t>
+          <t>-1,76; 7,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 358,82</t>
+          <t>-9,26; 84,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 133,49</t>
+          <t>-32,04; 58,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 119,6</t>
+          <t>6,16; 192,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-79,13; 378,95</t>
+          <t>-21,11; 125,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>19,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,74</t>
+          <t>0,0; 77,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-70,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-56,74%</t>
+          <t>-64,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>-10,38%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,31</t>
+          <t>-5,06; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,68</t>
+          <t>-6,65; 1,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,84</t>
+          <t>-5,58; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,57</t>
+          <t>-4,6; 4,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 358,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 133,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 119,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,13; 378,95</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>136,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>-21,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>-40,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>-53,66%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,62</t>
+          <t>0,72; 12,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,97</t>
+          <t>-7,25; 2,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,08</t>
+          <t>-5,38; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,0</t>
+          <t>-7,86; 0,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 84,79</t>
+          <t>-1,88; 539,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 58,36</t>
+          <t>-61,44; 51,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 192,73</t>
+          <t>-84,78; 95,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 125,56</t>
+          <t>-85,33; 37,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>88,81%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,99</t>
+          <t>-4,89; 8,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,38</t>
+          <t>-5,23; 8,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,7</t>
+          <t>2,05; 15,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,15</t>
+          <t>1,29; 11,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 74,04</t>
+          <t>-24,8; 59,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 41,55</t>
+          <t>-26,58; 78,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 130,64</t>
+          <t>15,83; 249,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 113,07</t>
+          <t>7,0; 239,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 6,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 3,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 5,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 5,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-15,96; 72,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-29,92; 42,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 134,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,95; 119,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,35</t>
+          <t>0,0; 72,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,0</t>
+          <t>-5,74; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,05</t>
+          <t>-6,32; 0,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,29</t>
+          <t>-5,61; 1,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,01</t>
+          <t>-4,62; 4,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 12,93</t>
+          <t>0,18; 12,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 2,95</t>
+          <t>-6,93; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1,73</t>
+          <t>-5,26; 1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,78</t>
+          <t>-8,02; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 539,04</t>
+          <t>-11,96; 556,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 51,6</t>
+          <t>-61,27; 62,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-84,78; 95,98</t>
+          <t>-86,48; 77,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-85,33; 37,14</t>
+          <t>-86,45; 45,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,4</t>
+          <t>-4,81; 8,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 8,87</t>
+          <t>-5,88; 7,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 15,16</t>
+          <t>1,63; 15,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,52</t>
+          <t>0,56; 11,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 59,27</t>
+          <t>-24,31; 63,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 78,42</t>
+          <t>-31,79; 64,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 249,35</t>
+          <t>11,85; 246,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 239,62</t>
+          <t>2,95; 237,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,18</t>
+          <t>-1,8; 5,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,31</t>
+          <t>-3,58; 3,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,84</t>
+          <t>-0,71; 6,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,19</t>
+          <t>-1,23; 4,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 72,86</t>
+          <t>-15,55; 70,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 42,93</t>
+          <t>-30,14; 44,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 134,41</t>
+          <t>-10,47; 135,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 119,78</t>
+          <t>-19,56; 101,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,01</t>
+          <t>0,0; 77,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-13,1%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,0</t>
+          <t>-5,14; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,98</t>
+          <t>-6,69; 1,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,23</t>
+          <t>-5,03; 1,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,39</t>
+          <t>-5,03; 3,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-53,66%</t>
+          <t>-50,24%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 12,87</t>
+          <t>0,15; 12,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 3,37</t>
+          <t>-7,68; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,47</t>
+          <t>-5,37; 1,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,95</t>
+          <t>-7,88; 0,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 556,61</t>
+          <t>-10,75; 493,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,27; 62,94</t>
+          <t>-62,56; 54,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,48; 77,23</t>
+          <t>-85,55; 126,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-86,45; 45,76</t>
+          <t>-82,08; 33,1</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>92,96%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 8,82</t>
+          <t>-4,34; 8,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 7,95</t>
+          <t>-5,52; 8,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 15,62</t>
+          <t>1,86; 15,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 11,15</t>
+          <t>1,05; 11,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 63,23</t>
+          <t>-21,5; 63,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 64,75</t>
+          <t>-28,43; 72,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 246,58</t>
+          <t>10,63; 232,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 237,6</t>
+          <t>10,44; 263,09</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,83</t>
+          <t>-1,57; 5,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,46</t>
+          <t>-3,53; 3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,03</t>
+          <t>-0,68; 5,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,93</t>
+          <t>-0,89; 5,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 70,09</t>
+          <t>-13,72; 74,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 44,17</t>
+          <t>-31,73; 41,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 135,46</t>
+          <t>-12,12; 130,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 101,81</t>
+          <t>-15,36; 119,51</t>
         </is>
       </c>
     </row>
